--- a/epigraphhub/data/brasil/sinan/metadata/FAMA.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/FAMA.xlsx
@@ -43,8 +43,7 @@
     <t xml:space="preserve">DBF</t>
   </si>
   <si>
-    <t xml:space="preserve">31. Data da
-investigação</t>
+    <t xml:space="preserve">31. Data da investigação</t>
   </si>
   <si>
     <t xml:space="preserve">dt_investigacao</t>
@@ -85,9 +84,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32. Ocupação/ Ramo
-de Atividade
-Econômica</t>
+    <t xml:space="preserve">32. Ocupação/ Ramo de Atividade Econômica</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -119,15 +116,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Ocorrência de
-Epizootias
-(mortandade de
-macaco conhecido
-como guariba, bugio,
-sagüis, micos,
-macaco aranha,
-macaco prego, guigó,
-soim etc)</t>
+    <t xml:space="preserve">33. Ocorrência de Epizootias (mortandade de macaco conhecido como guariba, bugio, sagüis, micos, macaco aranha, macaco prego, guigó, soim etc)</t>
   </si>
   <si>
     <t xml:space="preserve">st_ento_ocorrencia_epizootia</t>
@@ -157,8 +146,7 @@
     <t xml:space="preserve">EPIZOOTIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Isolamento de
-vírus em mosquitos</t>
+    <t xml:space="preserve">33. Isolamento de vírus em mosquitos</t>
   </si>
   <si>
     <t xml:space="preserve">st_ento_isolamento_virus</t>
@@ -175,12 +163,7 @@
     <t xml:space="preserve">ISOL_VIR_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33. Presença de
-mosquito Aedes
-aegypti em área
-urbana (Observar
-período de viremia do
-paciente)</t>
+    <t xml:space="preserve">33. Presença de mosquito Aedes aegypti em área urbana (Observar período de viremia do paciente)</t>
   </si>
   <si>
     <t xml:space="preserve">st_ento_presenca_mosquito</t>
@@ -228,8 +211,7 @@
     <t xml:space="preserve">VETOR_A</t>
   </si>
   <si>
-    <t xml:space="preserve">34. Vacinado contra
-Febre Amarela</t>
+    <t xml:space="preserve">34. Vacinado contra Febre Amarela</t>
   </si>
   <si>
     <t xml:space="preserve">st_vacinado_febre_amarela</t>
@@ -331,8 +313,7 @@
     <t xml:space="preserve">UNID_VAC</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Sinais e sintomas
-– dor abdominal</t>
+    <t xml:space="preserve">39. Sinais e sintomas – dor abdominal</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_dor_abdominal</t>
@@ -352,12 +333,7 @@
     <t xml:space="preserve">DOR_ABDO_N</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Sinais e sintomas
-– Sinais
-hemorrágicos
-(hematêmese,
-melena, epistaxe,
-gengivorragia, etc</t>
+    <t xml:space="preserve">39. Sinais e sintomas – Sinais hemorrágicos (hematêmese, melena, epistaxe, gengivorragia, etc</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_hemorragico</t>
@@ -375,11 +351,7 @@
     <t xml:space="preserve">SINT_HEM_N</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Sinais e sintomas
-– Sinal de Faget
-(temperatura alta e
-freqüência cardíaca
-lenta)</t>
+    <t xml:space="preserve">39. Sinais e sintomas – Sinal de Faget (temperatura alta e freqüência cardíaca lenta)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_faget</t>
@@ -396,10 +368,7 @@
     <t xml:space="preserve">FAGET</t>
   </si>
   <si>
-    <t xml:space="preserve">39. Sinais e sintomas
-– distúrbios de
-excreção renal
-(oligúria e/ou anúria)</t>
+    <t xml:space="preserve">39. Sinais e sintomas – distúrbios de excreção renal (oligúria e/ou anúria)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_excrecao_renal</t>
@@ -415,8 +384,7 @@
     <t xml:space="preserve">EXCR_RENA_</t>
   </si>
   <si>
-    <t xml:space="preserve">40. Ocorreu
-Hospitalização</t>
+    <t xml:space="preserve">40. Ocorreu Hospitalização</t>
   </si>
   <si>
     <t xml:space="preserve">st_ocorreu_hospitalizacao</t>
@@ -500,8 +468,7 @@
     <t xml:space="preserve">HOSPITALIZ</t>
   </si>
   <si>
-    <t xml:space="preserve">41. Data da
-internação</t>
+    <t xml:space="preserve">41. Data da internação</t>
   </si>
   <si>
     <t xml:space="preserve">dt_internacao</t>
@@ -524,8 +491,7 @@
     <t xml:space="preserve">DT_INTERNA</t>
   </si>
   <si>
-    <t xml:space="preserve">42. UF de
-hospitalização</t>
+    <t xml:space="preserve">42. UF de hospitalização</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_hospital</t>
@@ -544,8 +510,7 @@
     <t xml:space="preserve">UF</t>
   </si>
   <si>
-    <t xml:space="preserve">43. Município do
-hospital</t>
+    <t xml:space="preserve">43. Município do hospital</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_hospital</t>
@@ -573,9 +538,7 @@
     <t xml:space="preserve">HOSPITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">45. Exames
-Inespecíficos
-Bilirrubina Total - BT</t>
+    <t xml:space="preserve">45. Exames Inespecíficos Bilirrubina Total - BT</t>
   </si>
   <si>
     <t xml:space="preserve">nu_exame_total</t>
@@ -596,9 +559,7 @@
     <t xml:space="preserve">BT</t>
   </si>
   <si>
-    <t xml:space="preserve">45. Exames
-Inespecíficos
-AST (TGO)</t>
+    <t xml:space="preserve">45. Exames Inespecíficos AST (TGO)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_exame_ast</t>
@@ -624,10 +585,7 @@
     <t xml:space="preserve">AST</t>
   </si>
   <si>
-    <t xml:space="preserve">45. Exames
-Inespecíficos
-Bilirrubina Direta –
-BD</t>
+    <t xml:space="preserve">45. Exames Inespecíficos Bilirrubina Direta – BD</t>
   </si>
   <si>
     <t xml:space="preserve">nu_exame_direta</t>
@@ -644,9 +602,7 @@
     <t xml:space="preserve">BD</t>
   </si>
   <si>
-    <t xml:space="preserve">45. Exames
-Inespecíficos
-ALT (TGP)</t>
+    <t xml:space="preserve">45. Exames Inespecíficos ALT (TGP)</t>
   </si>
   <si>
     <t xml:space="preserve">nu_exame_alt</t>
@@ -668,10 +624,7 @@
     <t xml:space="preserve">ALT</t>
   </si>
   <si>
-    <t xml:space="preserve">46. Exame
-sorológico:
-Data da coleta
-1ª amostra</t>
+    <t xml:space="preserve">46. Exame sorológico: Data da coleta 1ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">dt_sorologico_coleta_1</t>
@@ -688,10 +641,7 @@
     <t xml:space="preserve">DT_COL_1</t>
   </si>
   <si>
-    <t xml:space="preserve">47. Exame
-sorológico:
-Resultado
-1ª amostra</t>
+    <t xml:space="preserve">47. Exame sorológico: Resultado 1ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">tp_sorologico_resultado_1</t>
@@ -706,10 +656,7 @@
     <t xml:space="preserve">S1_IGM</t>
   </si>
   <si>
-    <t xml:space="preserve">48. Exame
-sorológico:
-Data da coleta
-2ª amostra</t>
+    <t xml:space="preserve">48. Exame sorológico: Data da coleta 2ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">dt_sorologico_coleta_2</t>
@@ -726,10 +673,7 @@
     <t xml:space="preserve">DT_COL_2</t>
   </si>
   <si>
-    <t xml:space="preserve">49. Exame
-sorológico:
-Resultado
-2ª amostra</t>
+    <t xml:space="preserve">49. Exame sorológico: Resultado 2ª amostra</t>
   </si>
   <si>
     <t xml:space="preserve">tp_sorologico_resultado_2</t>
@@ -744,8 +688,7 @@
     <t xml:space="preserve">S2_IGM</t>
   </si>
   <si>
-    <t xml:space="preserve">50. Isolamento Viral –
-material coletado</t>
+    <t xml:space="preserve">50. Isolamento Viral – material coletado</t>
   </si>
   <si>
     <t xml:space="preserve">st_viral_coletado</t>
@@ -781,8 +724,7 @@
     <t xml:space="preserve">DT_COLETA</t>
   </si>
   <si>
-    <t xml:space="preserve">52. Resultado do
-isolamento</t>
+    <t xml:space="preserve">52. Resultado do isolamento</t>
   </si>
   <si>
     <t xml:space="preserve">tp_resultado_isolamento</t>
@@ -877,8 +819,7 @@
     <t xml:space="preserve">RES_ISOLAM</t>
   </si>
   <si>
-    <t xml:space="preserve">53. Histopatologia -
-Resultado</t>
+    <t xml:space="preserve">53. Histopatologia - Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_histopatologia</t>
@@ -887,8 +828,7 @@
     <t xml:space="preserve">HISTOPA</t>
   </si>
   <si>
-    <t xml:space="preserve">54.Imunohistoquímica
-- Resultado</t>
+    <t xml:space="preserve">54.Imunohistoquímica - Resultado</t>
   </si>
   <si>
     <t xml:space="preserve">tp_imunohitoquimica</t>
@@ -903,8 +843,7 @@
     <t xml:space="preserve">IMUNOH</t>
   </si>
   <si>
-    <t xml:space="preserve">55. Data da coleta do
-PCR</t>
+    <t xml:space="preserve">55. Data da coleta do PCR</t>
   </si>
   <si>
     <t xml:space="preserve">Dt_pcr_coleta</t>
@@ -989,9 +928,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">57. Classificação
-Final Descartado
-(especificar)</t>
+    <t xml:space="preserve">57. Classificação Final Descartado (especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_classificacao_final</t>
@@ -1008,9 +945,7 @@
     <t xml:space="preserve">CLASFIN_ES</t>
   </si>
   <si>
-    <t xml:space="preserve">58. Critério de
-Confirmação /
-Descarte</t>
+    <t xml:space="preserve">58. Critério de Confirmação / Descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -1066,9 +1001,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">59. O caso é
-Autóctone de
-residência?</t>
+    <t xml:space="preserve">59. O caso é Autóctone de residência?</t>
   </si>
   <si>
     <t xml:space="preserve">tp_autoctone_residencia</t>
@@ -1177,8 +1110,7 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">60. UF (provável da
-fonte de infecção)</t>
+    <t xml:space="preserve">60. UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
@@ -1263,8 +1195,7 @@
     <t xml:space="preserve">COUFINF</t>
   </si>
   <si>
-    <t xml:space="preserve">61. País (provável da
-fonte de infecção)</t>
+    <t xml:space="preserve">61. País (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_infeccao</t>
@@ -1348,9 +1279,7 @@
     <t xml:space="preserve">COPAISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">62. Município
-(provável da fonte de
-infecção)</t>
+    <t xml:space="preserve">62. Município (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_infeccao</t>
@@ -1438,8 +1367,7 @@
     <t xml:space="preserve">COMUNINF</t>
   </si>
   <si>
-    <t xml:space="preserve">63. Distrito
-(provável de infecção)</t>
+    <t xml:space="preserve">63. Distrito (provável de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_distrito_infeccão</t>
@@ -1521,11 +1449,10 @@
     <t xml:space="preserve">CODISINF</t>
   </si>
   <si>
-    <t xml:space="preserve">64. Bairro (provável
-de infecção)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co_bairro_infeccao,
+    <t xml:space="preserve">64. Bairro (provável de infecção)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co_bairro_infeccao
 no_bairro_infeccao</t>
   </si>
   <si>
@@ -1674,9 +1601,7 @@
     <t xml:space="preserve">LOCALIDADE</t>
   </si>
   <si>
-    <t xml:space="preserve">66. Doença
-relacionada ao
-trabalho</t>
+    <t xml:space="preserve">66. Doença relacionada ao trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -1736,9 +1661,7 @@
     <t xml:space="preserve">DOENCA_TRA</t>
   </si>
   <si>
-    <t xml:space="preserve">67. Atividade
-desenvolvida no local
-provável de infecção</t>
+    <t xml:space="preserve">67. Atividade desenvolvida no local provável de infecção</t>
   </si>
   <si>
     <t xml:space="preserve">tp_atividade_infeccao</t>
@@ -1913,8 +1836,7 @@
     <t xml:space="preserve">DT_OBITO</t>
   </si>
   <si>
-    <t xml:space="preserve">70. Data de
-Encerramento</t>
+    <t xml:space="preserve">70. Data de Encerramento</t>
   </si>
   <si>
     <t xml:space="preserve">dt_encerramento</t>
@@ -1956,9 +1878,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 1 Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Data 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">dt_info_1</t>
@@ -1987,9 +1907,7 @@
 Sinan NET</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 2 Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Data 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">dt_info_2</t>
@@ -2013,9 +1931,7 @@
 Informar Data 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Data 3 Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Data 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">dt_info_3</t>
@@ -2039,9 +1955,7 @@
 Informar Data 3</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 1Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">UF 1Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_obs1</t>
@@ -2064,9 +1978,7 @@
 Informar UF 1</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 2 Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">UF 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_obs2</t>
@@ -2090,9 +2002,7 @@
 Informar UF 2</t>
   </si>
   <si>
-    <t xml:space="preserve">UF 3 Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">UF 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_obs3</t>
@@ -2116,10 +2026,7 @@
 Informar UF 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 1
-Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Município 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_obs1</t>
@@ -2143,10 +2050,7 @@
 Informar Município 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 2
-Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Município 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_obs2</t>
@@ -2170,10 +2074,7 @@
 Informar Município 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Município 3
-Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Município 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_municipio_obs3</t>
@@ -2196,9 +2097,7 @@
 Informar Município 3</t>
   </si>
   <si>
-    <t xml:space="preserve">País Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">País Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_obs1</t>
@@ -2225,9 +2124,7 @@
 Informar o País 1</t>
   </si>
   <si>
-    <t xml:space="preserve">País 2 Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">País 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_obs2</t>
@@ -2251,8 +2148,7 @@
 Informar o País 2</t>
   </si>
   <si>
-    <t xml:space="preserve">País 3 Informações complementares e
-Observações</t>
+    <t xml:space="preserve">País 3 Informações complementares e Observações</t>
   </si>
   <si>
     <t xml:space="preserve">co_pais_obs3</t>
@@ -2280,10 +2176,7 @@
 Sinan NET</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de Transporte 1
-Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Meio de Transporte 1 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_transporte1</t>
@@ -2308,10 +2201,7 @@
 Transporte 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de Transporte 2
-Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Meio de Transporte 2 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_transporte2</t>
@@ -2336,10 +2226,7 @@
 Transporte 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Meio de Transporte 3
-Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Meio de Transporte 3 Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_transporte3</t>
@@ -2364,9 +2251,7 @@
 Transporte 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Informações
-complementares e
-observações</t>
+    <t xml:space="preserve">Informações complementares e observações</t>
   </si>
   <si>
     <t xml:space="preserve">ds_observacao</t>
@@ -2605,8 +2490,8 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="7" sqref="A2:A7 A12:A19 A21:A29 A31:A34 A37:A44 A46:A47 A50:A66 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.046875" defaultRowHeight="70.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
